--- a/portifolio/orcamento.xlsx
+++ b/portifolio/orcamento.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="16275" windowHeight="9525"/>
@@ -12,11 +12,12 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>PROCESSADOR</t>
   </si>
@@ -66,9 +67,6 @@
     <t>MONITOR</t>
   </si>
   <si>
-    <t>ACESSÓRIO</t>
-  </si>
-  <si>
     <t>INTEL CORE I5</t>
   </si>
   <si>
@@ -91,9 +89,6 @@
   </si>
   <si>
     <t>1614,05 R$</t>
-  </si>
-  <si>
-    <t>FOTO ILUSTRATIVA</t>
   </si>
   <si>
     <r>
@@ -176,15 +171,24 @@
   <si>
     <t>Cód.24443627</t>
   </si>
+  <si>
+    <t>ORÇAMENTO DE EQUIPAMENTO PARA A OFICINA CHAVE DE RODAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOTO ILUSTRATIVA ==&gt; </t>
+  </si>
+  <si>
+    <t>ACESSÓRIOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,16 +236,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -265,63 +283,150 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -796,238 +901,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>33</v>
+      <c r="E7" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E14" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="7" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
+      <c r="D16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -1038,7 +1150,7 @@
     <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
